--- a/data/types.xlsx
+++ b/data/types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\博士\学习\代码\hyd-code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huif\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107A0591-3B0A-47A1-A681-DF5C70CB05BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A0CB2D-2A46-4ACE-96DC-1B006854FAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>K2NbF7</t>
   </si>
@@ -116,42 +116,6 @@
   </si>
   <si>
     <t>LiAlH4</t>
-  </si>
-  <si>
-    <t>nano Ti</t>
-  </si>
-  <si>
-    <t>VF4-Ti3C2</t>
-  </si>
-  <si>
-    <t>MBH-LiBH4-T2C</t>
-  </si>
-  <si>
-    <t>MBH-LiBH4-V2C</t>
-  </si>
-  <si>
-    <t>MBH-NaBH4-NdF3</t>
-  </si>
-  <si>
-    <t>MBH-LAH-TiF3</t>
-  </si>
-  <si>
-    <t>MBH-LAH-FGi</t>
-  </si>
-  <si>
-    <t>MBH-AlH3-LiH</t>
-  </si>
-  <si>
-    <t>MBH-NaBH4-FG</t>
-  </si>
-  <si>
-    <t>MBH-NaBH4-FGi</t>
-  </si>
-  <si>
-    <t>MBH-LBH-FGi</t>
-  </si>
-  <si>
-    <t>MBH-NaAlH4-TiF3</t>
   </si>
   <si>
     <t>type</t>
@@ -192,15 +156,6 @@
   <si>
     <t>boride9</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NdF3</t>
-  </si>
-  <si>
-    <t>TiF3</t>
-  </si>
-  <si>
-    <t>V2C</t>
   </si>
 </sst>
 </file>
@@ -768,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -788,34 +743,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -1048,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1843,486 +1798,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
+      <c r="A35" s="4"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
